--- a/Estudio-FG/ataques_con_detecciones_FG.xlsx
+++ b/Estudio-FG/ataques_con_detecciones_FG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3EF126F-ECD8-4703-A75B-C7FE69E46280}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2C1CDAB-55CA-4B54-862C-EDFF03C9F42C}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1130" windowWidth="20210" windowHeight="19630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="25860" windowHeight="19630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,19 +186,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -216,6 +212,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,435 +481,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.36328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="57.36328125" customWidth="1"/>
     <col min="2" max="2" width="38.90625" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" customWidth="1"/>
     <col min="4" max="4" width="36.08984375" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
         <v>53580</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
         <v>16060</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1">
         <v>31834</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1">
         <v>18123</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="150" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>158</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="25" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1">
         <v>27457</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>52169</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>42533</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
         <v>52169</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>8064362</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>91642</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>49480</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>35</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>15621</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
         <v>15621</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>76</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1">
         <v>53580</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
         <v>40511</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1">
         <v>15921</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1">
         <v>15921</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
         <v>15621</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1">
         <v>41469</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
         <v>15621</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>11</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1">
         <v>47013</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1">
         <v>10357</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1">
         <v>46402</v>
       </c>
     </row>
